--- a/meta/1-5-3.xlsx
+++ b/meta/1-5-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -106,69 +106,95 @@
     <t>Министерство чрезвычайных ситуаций КР</t>
   </si>
   <si>
-    <t>Кадырова Д.</t>
-  </si>
-  <si>
     <t xml:space="preserve">k-gulshat-b@mail.ru </t>
   </si>
   <si>
     <t xml:space="preserve">http://ru.mes.kg/ </t>
   </si>
   <si>
-    <t>Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, касающимся уменьшения опасностей бедствий (УОБ), установленных Генеральной Ассамблеей (резолюция 69/284), разрабатывает ряд показателей для оценки глобального прогресса в осуществлении Сендайской рамочной программе. Эти показатели будут в конечном итоге отражать показатели по Сендайской рамочной программе.</t>
-  </si>
-  <si>
-    <t>Стратегия снижения риска бедствий нацелена на достижение в ближайшие 15 лет следующего результата: существенное снижение риска бедствий и сокращение потерь в результате бедствий в виде человеческих жертв, утраты источников средств к существованию и ухудшения состояния здоровья людей, и неблагоприятных последствий для экономических, физических, социальных, культурных и экологических активов людей, предприятий, общин и стран.</t>
-  </si>
-  <si>
-    <t>Показатель построит мост между ЦУР (SDG) и Сендайской рамочной программой для УОБ (DRR). Увеличение числа национальных правительств, которые принимают и реализуют национальные и местные стратегии УОБ, которые, согласно Сендайской рамочной программе, будут способствовать устойчивому развитию с экономической, экологической и социальной точек зрения.
-Не рекомендуется просто подсчитывать количество стран, вместо этого поощряются показатели для оценки прогресса с течением времени. В дополнение к обсуждениям МРГОС, а также Межведомственной экспертной группы, МСУОБ ООН предложила методологию расчета, которая позволит осуществлять мониторинг улучшения национальных и местных стратегий УОБ с течением времени. Эти методологии варьируются от простой количественной оценки этих стратегий до качественной меры согласования с Сендайской рамочной программой, а также охвата населения местными стратегиями.</t>
-  </si>
-  <si>
-    <t>Национальный отчет о прогрессе Мониторинга Сендайской рамочной программы, который был представлен в МСУОБ ООН.</t>
-  </si>
-  <si>
     <t>Официальный партнер(ы) на уровне страны предоставляют национальный отчет о прогрессе в Мониторинге Сендайской рамочной программы.</t>
   </si>
   <si>
-    <t xml:space="preserve">Примечание: методика расчета по нескольким показателям комплексна, очень длинная (около 180 страниц) и, вероятно, выходит за рамки этих метаданных. МСУОБ ООН предпочитает сослаться на итоги Межправительственной рабочей группой Открытого состава (МРГОС), которая предоставляет полную подробную методику по каждому показателю. 
+    <t>Национальный уровень.</t>
+  </si>
+  <si>
+    <t>Кадырова Г.Б./ Мамбетов А.М.</t>
+  </si>
+  <si>
+    <t>(0312) 56-86-32</t>
+  </si>
+  <si>
+    <t>Сендайская рамочная программа по снижению риска бедствий на 2015-2030 г. (принята на Третьей всемирной конференции ООН по СРБ в марте 2015 г., г.Сендай, Япония), предусматривает 7 целевых задач (A, D, C, D, E, F, G).
+Сендайская рамочная программа это расширенный инструмент-преемник Хиогской рамочной программы действий, в которой уделяется большее внимание предотвращению новых рисков, снижению существующей опасности и укреплению устойчивости, в отличие от управления бедствиями.
+Задача Е - существенное увеличение количества стран с национальными и местными стратегиями по сокращению риска бедствий в соответствии с Сендайской рамочной программой по снижению риска бедствий на 2015-2030 г.
+Стратегии и политики в области снижения риска бедствий: определение целей и задач на различные временные периоды с конкретными целями, показателями и сроками. В соответствии с Сендайской Рамочной Программой по снижению риска бедствий на 2015-2030 годы, данные меры должны быть направлены на предотвращение появления риска бедствий, снижение
+существующих рисков и укрепление экономической, социальной, экологической устойчивости и устойчивости здравоохранения. 
+Местные органы власти: Форма административно-территориального
+государственного управления, в которой ответственность за снижение риска бедствий определятся страной в рамках мониторинга Задачи Е.
+ Определения взяты из «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий», разработанного межправительственной рабочей группы экспертов открытого состава по работе с показателями и терминологией о снижении риска бедствий (МРГОС) и одобренного Генеральной Ассамблеей Организации Объединенных Наций в резолюции A/RES/71/276, БСРБ ООН.</t>
+  </si>
+  <si>
+    <t>Ожидаемые показатели в рамках Сендайской рамочной программы за 15 лет: "Существенное снижение риска бедствий и гибели людей, жизнедеятельность и здоровье, а также в экономические, материальные, социальные, культурные и экологические активы лиц, предприятий, общин и стран". В Рамочной программе утверждается, что "Для достижения ожидаемых показателей необходимо стремиться к достижению следующей цели: Предотвращение новых и снижение существующих рисков бедствий путем осуществления комплексных и всеобъемлющих экономических, структурных, правовых, социальных, медицинских, культурных, образовательных, экологических, технологических, политических и институциональных мер, которые препятствуют и понижают подверженность риску и уязвимость к бедствиям, повышают готовности к реагированию и восстановлению и, таким образом, укрепляют устойчивость ".
+Национальные и местные стратегии СРБ должны основываться на и согласовываться с объемом, результатом, целью, руководящими принципами и приоритетами действий Сендайской рамочной программы, как-то упоминалось выше.</t>
+  </si>
+  <si>
+    <t>Увеличение числа национальных правительств, которые принимают и реализуют национальные и местные стратегии УОБ, которые, согласно Сендайской рамочной программе, будут способствовать устойчивому развитию с экономической, экологической и социальной точек зрения.
+В случае Задачи Е, методом расчета является простая средняя арифметическая уровня осуществления каждого из ключевых элементов, информацию о статусе которых государства-члены будут сообщать через онлайн-систему для мониторинга осуществления Сендайской рамочной программы. Система будет вычислять результат для страны отчетность по следующей методологии.</t>
+  </si>
+  <si>
+    <t>МЧС КР, система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для проведения простого и единообразного глобального мониторинга Задачи Е, предложено суммирование национальных данных для показателя E-1 и среднее арифметическое национальных данных для показателя E-2. Десять ключевых элементов предлагается оценивать равно, назначая 10% (или 0,1) для каждого элемента. Так как каждый элемент сам по себе может состоять из нескольких составных элементов, страны будут проводить сравнительный анализ, согласно следующего взвешивания показателей:
+I. Полное выполнение (полный результат): 1.0,
+II. Значительное выполнение, требуется дополнительный прогресс: 0.75,
+III. Среднее выполнение, не полное, не значительное: 0.50,
+IV. Небольшое выполнение: 0.25,
+Невыполнение или отсутствие выполнения означают 0.
 Последняя версия этой методологии можно получить по адресу:
-http://www.preventionweb.net/documents/oiewg/
-Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
+http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
 </t>
   </si>
   <si>
-    <t>Инструмент мониторинга Хиогской рамочной программы действий (HFA) начал действие в 2007 году и с течением времени увеличилось число стран, подотчетных МСУОБ ООН, от 60 в 2007 году до 140 стран, которые в настоящее время проводят добровольную самооценку прогресса внедрения Хиогской рамочной программы действий. В течение четырех циклов отчетности до 2015 года инструмент мониторинга Хиогской рамочной программы действий создал крупнейший в мире репозиторий информации о национальной политике в области УОБ, в частности. Преемственная программа, условно названная Сендайским инструментом мониторинга, находится в разработке и будет проинформирован рекомендациями МРГОС (OEIWG).</t>
-  </si>
-  <si>
-    <t>Временные ряды 2013 и 2015 годы: мониторинг Хиогской рамочной программы (HFA)</t>
-  </si>
-  <si>
-    <t>Национальный уровень.</t>
-  </si>
-  <si>
-    <t>Данные по Кыргызстану сопоставимы с данными других стран, так как составляются на основе международной методологии.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://www.preventionweb.net/documents/oiewg/ Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
-Организацией Объединенных Наций было поручено создание Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающейся уменьшения опасности бедствий (OEIWG), для разработки набора показателей для измерения глобального прогресса в осуществлении Сендайской рамочной программы по снижению риска бедствий, включая семь глобальных целей. Работа OEIWG должна быть завершена к декабрю 2016 года, а ее доклад представлен Генеральной Ассамблее для рассмотрения. Межправительственная рабочая группа по Целям устойчивого развития IAEG-SDG и Статистическая комиссия ООН формально признают роль OEIWG и возлагают ответственность за дальнейшее уточнение и разработку методологии для индикаторов ЦУР, связанных с бедствиями на данную рабочую группу.
-http://www.preventionweb.net/drr-framework/open-ended-working-group/
-Последняя версия документов находится по адресу:
-http://www.preventionweb.net/drr-framework/open-ended-working-group/sessional-intersessionaldocuments
-Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
-</t>
+    <t>Инструмент мониторинга Хиогской рамочной программы действий (HFA) начал действие в 2007 году и с течением времени увеличилось число стран, подотчетных МСУОБ ООН, от 60 в 2007 году до 140 стран, которые в настоящее время проводят добровольную самооценку прогресса внедрения Хиогской рамочной программы действий. В течение четырех циклов отчетности до 2015 года инструмент мониторинга Хиогской рамочной программы действий создал крупнейший в мире репозиторий информации о национальной политике в области УОБ, в частности. Преемственная программа, условно названная Сендайским инструментом мониторинга, находится в разработке и будет проинформирован рекомендациями МРГОС (OEIWG). Предполагается, что базовый уровень по состоянию на 2015 год будет создан в 2016-2017 годах, что соответствует прогрессу в достижении целей как Сендайской рамочной программы, так и ЦУР.
+Члены как МРГОС и Межправительственная рабочая группа по Целям устойчивого развития (IAEG-SDG) обратили внимание на то, что индикаторы, которые просто подсчитывают количество стран, не рекомендуются, вместо этого поощряются показатели для оценки прогресса с течением времени. В дополнение к обсуждениям МРГОС, а также Межведомственной экспертной группы, МСУОБ ООН предложила методологию расчета, которая позволит осуществлять мониторинг улучшения национальных и местных стратегий УОБ с течением времени. Эти методологии варьируются от простой количественной оценки этих стратегий до качественной меры согласования с Сендайской рамочной программой, а также охвата населения местными стратегиями.</t>
+  </si>
+  <si>
+    <t>Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендая.
+МЧС КР как государственный орган представляет в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
+  </si>
+  <si>
+    <t>В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
+Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
+  </si>
+  <si>
+    <t>Концепция комплексной защиты населения и территории Кыргызской Республики от чрезвычайных ситуаций на 2018-2030 годы, утверждена постановлением Правительства Кыргызской Республики от 29.01.2018 года №58. Концепция включает в себя все 4 приоритета Сендайской рамочной программы СРБ. Имеется связь Целей ЦУР с Сендайской рамочной программой СРБ по целям 1.5, 11.5 и 13.1.
+Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
+  </si>
+  <si>
+    <t>Сайт МЧС КР, http://ru.mes.kg/
+Сайт НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития 
+Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,25 +261,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -571,7 +605,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -615,7 +649,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -623,8 +657,8 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,21 +666,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,28 +691,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,8 +725,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,27 +743,29 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="348" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -735,12 +773,12 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,23 +786,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
+      <c r="B26" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/meta/1-5-3.xlsx
+++ b/meta/1-5-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -100,81 +100,63 @@
     <t>1.5: К 2030 году повысить жизнестойкость малоимущих и лиц, находящихся в уязвимом положении, и уменьшить их незащищенность и уязвимость перед вызванными изменением климата экстремальными явлениями и другими экономическими, социальными и экологическими потрясениями и бедствиями</t>
   </si>
   <si>
-    <t>1.5.3: Число стран, принявших и осуществляющих стратегии снижения риска бедствий в соответствии с Сендайской рамочной программой по снижению риска бедствий на 2015–2030 годы</t>
-  </si>
-  <si>
     <t>Министерство чрезвычайных ситуаций КР</t>
   </si>
   <si>
+    <t>Кадырова Д.</t>
+  </si>
+  <si>
     <t xml:space="preserve">k-gulshat-b@mail.ru </t>
   </si>
   <si>
     <t xml:space="preserve">http://ru.mes.kg/ </t>
   </si>
   <si>
+    <t>Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, касающимся уменьшения опасностей бедствий (УОБ), установленных Генеральной Ассамблеей (резолюция 69/284), разрабатывает ряд показателей для оценки глобального прогресса в осуществлении Сендайской рамочной программе. Эти показатели будут в конечном итоге отражать показатели по Сендайской рамочной программе.</t>
+  </si>
+  <si>
+    <t>Стратегия снижения риска бедствий нацелена на достижение в ближайшие 15 лет следующего результата: существенное снижение риска бедствий и сокращение потерь в результате бедствий в виде человеческих жертв, утраты источников средств к существованию и ухудшения состояния здоровья людей, и неблагоприятных последствий для экономических, физических, социальных, культурных и экологических активов людей, предприятий, общин и стран.</t>
+  </si>
+  <si>
+    <t>Показатель построит мост между ЦУР (SDG) и Сендайской рамочной программой для УОБ (DRR). Увеличение числа национальных правительств, которые принимают и реализуют национальные и местные стратегии УОБ, которые, согласно Сендайской рамочной программе, будут способствовать устойчивому развитию с экономической, экологической и социальной точек зрения.
+Не рекомендуется просто подсчитывать количество стран, вместо этого поощряются показатели для оценки прогресса с течением времени. В дополнение к обсуждениям МРГОС, а также Межведомственной экспертной группы, МСУОБ ООН предложила методологию расчета, которая позволит осуществлять мониторинг улучшения национальных и местных стратегий УОБ с течением времени. Эти методологии варьируются от простой количественной оценки этих стратегий до качественной меры согласования с Сендайской рамочной программой, а также охвата населения местными стратегиями.</t>
+  </si>
+  <si>
+    <t>Национальный отчет о прогрессе Мониторинга Сендайской рамочной программы, который был представлен в МСУОБ ООН.</t>
+  </si>
+  <si>
     <t>Официальный партнер(ы) на уровне страны предоставляют национальный отчет о прогрессе в Мониторинге Сендайской рамочной программы.</t>
   </si>
   <si>
+    <t xml:space="preserve">Примечание: методика расчета по нескольким показателям комплексна, очень длинная (около 180 страниц) и, вероятно, выходит за рамки этих метаданных. МСУОБ ООН предпочитает сослаться на итоги Межправительственной рабочей группой Открытого состава (МРГОС), которая предоставляет полную подробную методику по каждому показателю. 
+Последняя версия этой методологии можно получить по адресу:
+http://www.preventionweb.net/documents/oiewg/
+Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
+</t>
+  </si>
+  <si>
+    <t>Инструмент мониторинга Хиогской рамочной программы действий (HFA) начал действие в 2007 году и с течением времени увеличилось число стран, подотчетных МСУОБ ООН, от 60 в 2007 году до 140 стран, которые в настоящее время проводят добровольную самооценку прогресса внедрения Хиогской рамочной программы действий. В течение четырех циклов отчетности до 2015 года инструмент мониторинга Хиогской рамочной программы действий создал крупнейший в мире репозиторий информации о национальной политике в области УОБ, в частности. Преемственная программа, условно названная Сендайским инструментом мониторинга, находится в разработке и будет проинформирован рекомендациями МРГОС (OEIWG).</t>
+  </si>
+  <si>
+    <t>Временные ряды 2013 и 2015 годы: мониторинг Хиогской рамочной программы (HFA)</t>
+  </si>
+  <si>
     <t>Национальный уровень.</t>
   </si>
   <si>
-    <t>Кадырова Г.Б./ Мамбетов А.М.</t>
-  </si>
-  <si>
-    <t>(0312) 56-86-32</t>
-  </si>
-  <si>
-    <t>Сендайская рамочная программа по снижению риска бедствий на 2015-2030 г. (принята на Третьей всемирной конференции ООН по СРБ в марте 2015 г., г.Сендай, Япония), предусматривает 7 целевых задач (A, D, C, D, E, F, G).
-Сендайская рамочная программа это расширенный инструмент-преемник Хиогской рамочной программы действий, в которой уделяется большее внимание предотвращению новых рисков, снижению существующей опасности и укреплению устойчивости, в отличие от управления бедствиями.
-Задача Е - существенное увеличение количества стран с национальными и местными стратегиями по сокращению риска бедствий в соответствии с Сендайской рамочной программой по снижению риска бедствий на 2015-2030 г.
-Стратегии и политики в области снижения риска бедствий: определение целей и задач на различные временные периоды с конкретными целями, показателями и сроками. В соответствии с Сендайской Рамочной Программой по снижению риска бедствий на 2015-2030 годы, данные меры должны быть направлены на предотвращение появления риска бедствий, снижение
-существующих рисков и укрепление экономической, социальной, экологической устойчивости и устойчивости здравоохранения. 
-Местные органы власти: Форма административно-территориального
-государственного управления, в которой ответственность за снижение риска бедствий определятся страной в рамках мониторинга Задачи Е.
- Определения взяты из «Технического руководства по мониторингу и представлению отчетности о прогрессе в области достижения глобальных целевых задач в рамках Сендайской рамочной программы по снижению риска бедствий», разработанного межправительственной рабочей группы экспертов открытого состава по работе с показателями и терминологией о снижении риска бедствий (МРГОС) и одобренного Генеральной Ассамблеей Организации Объединенных Наций в резолюции A/RES/71/276, БСРБ ООН.</t>
-  </si>
-  <si>
-    <t>Ожидаемые показатели в рамках Сендайской рамочной программы за 15 лет: "Существенное снижение риска бедствий и гибели людей, жизнедеятельность и здоровье, а также в экономические, материальные, социальные, культурные и экологические активы лиц, предприятий, общин и стран". В Рамочной программе утверждается, что "Для достижения ожидаемых показателей необходимо стремиться к достижению следующей цели: Предотвращение новых и снижение существующих рисков бедствий путем осуществления комплексных и всеобъемлющих экономических, структурных, правовых, социальных, медицинских, культурных, образовательных, экологических, технологических, политических и институциональных мер, которые препятствуют и понижают подверженность риску и уязвимость к бедствиям, повышают готовности к реагированию и восстановлению и, таким образом, укрепляют устойчивость ".
-Национальные и местные стратегии СРБ должны основываться на и согласовываться с объемом, результатом, целью, руководящими принципами и приоритетами действий Сендайской рамочной программы, как-то упоминалось выше.</t>
-  </si>
-  <si>
-    <t>Увеличение числа национальных правительств, которые принимают и реализуют национальные и местные стратегии УОБ, которые, согласно Сендайской рамочной программе, будут способствовать устойчивому развитию с экономической, экологической и социальной точек зрения.
-В случае Задачи Е, методом расчета является простая средняя арифметическая уровня осуществления каждого из ключевых элементов, информацию о статусе которых государства-члены будут сообщать через онлайн-систему для мониторинга осуществления Сендайской рамочной программы. Система будет вычислять результат для страны отчетность по следующей методологии.</t>
-  </si>
-  <si>
-    <t>МЧС КР, система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для проведения простого и единообразного глобального мониторинга Задачи Е, предложено суммирование национальных данных для показателя E-1 и среднее арифметическое национальных данных для показателя E-2. Десять ключевых элементов предлагается оценивать равно, назначая 10% (или 0,1) для каждого элемента. Так как каждый элемент сам по себе может состоять из нескольких составных элементов, страны будут проводить сравнительный анализ, согласно следующего взвешивания показателей:
-I. Полное выполнение (полный результат): 1.0,
-II. Значительное выполнение, требуется дополнительный прогресс: 0.75,
-III. Среднее выполнение, не полное, не значительное: 0.50,
-IV. Небольшое выполнение: 0.25,
-Невыполнение или отсутствие выполнения означают 0.
-Последняя версия этой методологии можно получить по адресу:
-http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
+    <t>Данные по Кыргызстану сопоставимы с данными других стран, так как составляются на основе международной методологии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: http://www.preventionweb.net/documents/oiewg/ Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
+Организацией Объединенных Наций было поручено создание Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающейся уменьшения опасности бедствий (OEIWG), для разработки набора показателей для измерения глобального прогресса в осуществлении Сендайской рамочной программы по снижению риска бедствий, включая семь глобальных целей. Работа OEIWG должна быть завершена к декабрю 2016 года, а ее доклад представлен Генеральной Ассамблее для рассмотрения. Межправительственная рабочая группа по Целям устойчивого развития IAEG-SDG и Статистическая комиссия ООН формально признают роль OEIWG и возлагают ответственность за дальнейшее уточнение и разработку методологии для индикаторов ЦУР, связанных с бедствиями на данную рабочую группу.
+http://www.preventionweb.net/drr-framework/open-ended-working-group/
+Последняя версия документов находится по адресу:
+http://www.preventionweb.net/drr-framework/open-ended-working-group/sessional-intersessionaldocuments
+Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 </t>
   </si>
   <si>
-    <t>Инструмент мониторинга Хиогской рамочной программы действий (HFA) начал действие в 2007 году и с течением времени увеличилось число стран, подотчетных МСУОБ ООН, от 60 в 2007 году до 140 стран, которые в настоящее время проводят добровольную самооценку прогресса внедрения Хиогской рамочной программы действий. В течение четырех циклов отчетности до 2015 года инструмент мониторинга Хиогской рамочной программы действий создал крупнейший в мире репозиторий информации о национальной политике в области УОБ, в частности. Преемственная программа, условно названная Сендайским инструментом мониторинга, находится в разработке и будет проинформирован рекомендациями МРГОС (OEIWG). Предполагается, что базовый уровень по состоянию на 2015 год будет создан в 2016-2017 годах, что соответствует прогрессу в достижении целей как Сендайской рамочной программы, так и ЦУР.
-Члены как МРГОС и Межправительственная рабочая группа по Целям устойчивого развития (IAEG-SDG) обратили внимание на то, что индикаторы, которые просто подсчитывают количество стран, не рекомендуются, вместо этого поощряются показатели для оценки прогресса с течением времени. В дополнение к обсуждениям МРГОС, а также Межведомственной экспертной группы, МСУОБ ООН предложила методологию расчета, которая позволит осуществлять мониторинг улучшения национальных и местных стратегий УОБ с течением времени. Эти методологии варьируются от простой количественной оценки этих стратегий до качественной меры согласования с Сендайской рамочной программой, а также охвата населения местными стратегиями.</t>
-  </si>
-  <si>
-    <t>Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендая.
-МЧС КР как государственный орган представляет в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
-  </si>
-  <si>
-    <t>В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
-Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития</t>
-  </si>
-  <si>
-    <t>Концепция комплексной защиты населения и территории Кыргызской Республики от чрезвычайных ситуаций на 2018-2030 годы, утверждена постановлением Правительства Кыргызской Республики от 29.01.2018 года №58. Концепция включает в себя все 4 приоритета Сендайской рамочной программы СРБ. Имеется связь Целей ЦУР с Сендайской рамочной программой СРБ по целям 1.5, 11.5 и 13.1.
-Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
-  </si>
-  <si>
-    <t>Сайт МЧС КР, http://ru.mes.kg/
-Сайт НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития 
-Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t xml:space="preserve">1.5.3: Число стран, принявших и осуществляющих национальные стратегии снижения риска бедствий в соответствии с Сендайской рамочной программой по снижению риска бедствий на 2015–2030 годы </t>
   </si>
 </sst>
 </file>
@@ -263,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -281,10 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -599,13 +577,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -635,8 +613,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,16 +627,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,9 +651,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -691,28 +667,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,8 +701,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -743,29 +719,27 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -773,12 +747,12 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>43</v>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,23 +760,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
